--- a/data_dictonary_revised.xlsx
+++ b/data_dictonary_revised.xlsx
@@ -8,8 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Data Dictonary" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Data Dictonary'!$1:$1048576</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -847,6 +850,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -869,12 +873,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1039,13 +1045,20 @@
   </sheetPr>
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="50.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.52"/>
   </cols>
@@ -3544,7 +3557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>9</v>
       </c>
@@ -6330,7 +6343,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05416666666667" bottom="1.05416666666667" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
